--- a/data/hotels_by_city/Dallas/Dallas_shard_395.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_395.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="990">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>tejrandhawa59801</t>
   </si>
   <si>
     <t>06/12/2018</t>
@@ -207,6 +210,9 @@
 Lesson we learnt is...We checked into this hotel because of the location and also because its a considerably new Hilton brand.Location is great. But service DOES NOT come close to the Hilton brand at all.We booked this hotel for 1 week of stay. In second day of stay, i noticed water keeps leaking out into the kitchen area and i informed the housekeeper.She told me to move the shower head towards the wall instead. Next day, i informed the front desk and she said she will send maintenance up to room.Same evening, i went downstaira to inform another employee, Rutu and her response to my problem is to offer me dirty rags to wipe the leak coming from the shower.4th day morning, i had to inform the front desk again and she did send a maintenance guy to try to fix the shower door and after he claimed was fix, the door got worse.  On Sat, my child slipped due to the same area that was not fixed!I went downstairs again and told Barbara and she did send another maintenance. Then i got another fron the front desk and she informed us that he will have to caulk the shower and we cannot shower or get it wet the rest of the night.At this point we only have another night of stay and this hotel is telling me that we cant shower???Lesson we learnt is this hotel is a franchised owned and may not be subject to Hilton standards.More</t>
   </si>
   <si>
+    <t>Runarndgtndizzy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r563779024-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -297,6 +303,9 @@
 The entire I-20 Dallas area corridor is...This is a lovely hotel in a warehouse district of south Grand Prairie, Texas. This brand hotel is designed for the business traveler that may spend weeks in one location. The rooms are always spacious with plenty of desk space and a little kitchen area. Home2 is my favorite of the Hilton brands - well it was until my car window was smashed a few steps from the entrance door and no one noticed a huge broken window with glass everywhere. Not one driver of the warehouse district said a word. Then I looked around and there was no security camera or warning that customers should not park there. However there were lots of signs warning guests that the guests park at their own risk. Inside the hotel was a lovely clean environment. If you want more space, book a full suite. If you are doing business in South Grand Prairie the location is great.Breakfast is packaged so it’s consistent. The pool is cold in May but not freezing. There are several large seating areas for groups. I am unsure if they had a meeting room. At first I blamed myself for leaving stuff in the minivan then discovered from other victims that the I-20 corridor is notorious for vandalztion of cars. One victimsaid that only a car charger was stolen from her car. It doesn’t matter what is in the car. The entire I-20 Dallas area corridor is a high theft area for hotels. Owners could do more for security but they won’t. One of the warehouse businesses hires people who are well aware of how theft works. I walked over there to talk to the guys. They are mad because the hotel won’t let them park back there so they won’t tell if they see anything - the way it was said - they wouldn’t tell if they saw something. So - don’t park anywhere you can’t see or hear your car. If I was the business owner - I would recruit one of those warehouse guys to patrol the are during their break time and pay fair compensation. Will you be okay at this hotel? I think so. I have traveled for decades and this is my first break-in. I usually travel as a solo female traveler. Mold and cigarette smoke in hotels made me turn to Trip Advisor in its early years to determine if the hotel met my standards. Trip Advisor has changed ownership. These days hotels pick a favorite review that is short and paints the hotel in such a way that the hotel smells sweet so you don’t know the truth or if you are at risk. You will see many positive reviews of this hotel - and they are true. If you get this hotel for a great rate - that’s wonderful. The great rates has so far cost me $2000 dollars in insurance copay, clothes replacement because they are covered in glass, a (quality) sewing machine, and more. I would have done better using valet parking and staying at a quality hotel or using a 3rd party and staying at a cheaper hotel so I would have money to pay for car break ins. Things are getting worse and hotels don’t care. Hilton does not care about guest safety. I felt safer at a lower “suites” hotel even though they had a tougher clientele. Why? Because the long term guests after sat outside smoking through the night. They protected their territory.I enjoyed earning Hilton Honors points but my safety is more important. Stay wherever you want but know that in this area from Dallas to west of Arlington is a high crime area. Be clear: The hotel itself and staff are outstanding.Would I stay here again? Sure. Why? This is a great environment on the inside. I did not get sick from mold or old cigarette smoke.Here is my point: The hotel cannot change how criminals think - but they can learn how criminals think and take action. I did not do my due diligence. I spent the rest of the day educating myself on how to protect my things while traveling. I won’t bring my sewing machine and quilts inside every hotel but I can create a better secured place for it.I have grown old and am fatigued at night. I go to sleep early. I pack light already. I need to know that while I am asleep, the hotel does its due diligence. Anyone can break in through that back door or room  and no one would ever know because the cameras don’t reach that far. Thieves know it. I worked at a hospital where someone was sleeping in a hospital room and no one knew for a very long time.At the Houston International Quilt Festival someone unhitched a locked trailer and drove away with thousands of dollars of finished quilts and machines. We work hard to create handmade quilts. When they are stolen - most likely no one realizes what they have.As for protecting the car and what you can do to protect your car at this location: The car is new to me. For decades I covered everything with a black cloth because we used station wagons or hatch backs. Our other vehicle was clearly packed. It was not vandalized. Why? The minivan has a privacy tint. This means it has a safety shatter into cubes when broken. Thieves love these privacy windows. My other cars had after market film making it very difficult to break the windows. Now that I know this - I will pay more money to have after market film added to the windows so when (not if) a thief breaks the window, the thief will lose precious seconds. Thieves have a fast 20 second goal to steal your stuff. If they can finish faster - that’s better for them. I am also getting a visible alarm installed so the thieves can see the flashing light and if they test it the alarm will warn them. I’m not getting a fake alarm. I have a few more tricks in my tool bag that I won’t put online. Once you are warned, you choose if you will be a victim. As for the hotel - Hilton is wealthy and will do whatever it wants to do and so will the franchise operators. This hotel was a big investment.It’s a lovely hotel. The accessible room has a little weird odor to it but not bad. The water leaks from the shower to the carpet so that may be the source of the smell. My spouse did not have hot water during the night and had to wait a while for the water to heat. The bed was very soft which made me worry about back pain but it was okay - no extra pain. My spouse used the fitness room and pool. Both were great. The guest laundry is inside the fitness room. The hotel has somehow become a refuge for families who live there long term, so the hotel is their home. I don’t like staying overnight in hotels that are apartment homes, but it’s great for the long term resident. The layout of the inside is well thought out. I’m sure that the people who did not have to spend all day working out the details of how to get their window and clothes replaced and glass cleaned enjoyed their stay. If you or a friend sews then you know how I feel about the quilt top. Maybe you carry your business in your car. You can’t take that stuff into every hotel. If you found this review helpful, please vote for it otherwise it will disappear and be covered up. I have given you photos of the beautiful sunrise the next day from the breakfast area so you understand my shock when I walked out and saw my car. The round circle is the fire pit which they will light if you request it. You see the broken glass by my car. Again - the staff was awesome. Because of the staff, I could finish my stay and still give a good review of the hotel. Would I stay here again? Yes I would if it was the best option. I won’t let people stop me from moving forward with my plans. I deducted a circle because of the hot water.More</t>
   </si>
   <si>
+    <t>texansbrett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r581679929-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -321,6 +330,9 @@
     <t>If you are looking for a top-notch hotel at a fair price then Home-2-Suites is your hotel! They have a great workout area, an awesome pool area, as well as a fire-pit area outside for a relaxing end to your evening. The only thing better than the breakfast that they serve is the service that they serve it with! Friendly staff and comfortable rooms!More</t>
   </si>
   <si>
+    <t>michaelwG1916GC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r557394138-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t>We came down to visit family and was very pleased with the location and quality of the room. It was easy to find using google maps. We called day of stay and the young lady taking the reservation was very pleasant and helpful. More</t>
   </si>
   <si>
+    <t>kristyn2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r552816066-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -372,6 +387,9 @@
     <t>It's a great hotel. The staffs were friendly and helpful. The room was nice, a lot of spaces. I have 2 MINOR complaints. The first is they need to have built-in stoves (and an oven would be nice). The pillows seem small and blankets need to be thicker. I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Tina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r551883629-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -396,6 +414,9 @@
     <t>Home2 Suites is located right off I-20 in Dallas (Grand Prairie)   The location is close to many dining and recreation places.The lobby is inviting and staff is welcomingHotel offers free daily breakfast and has a nice social area in lobby.  There is also a gym and swimming pool.  There is a fire pit for socializing, but unfortunately was not lit while we were there.The rooms are very large suites.  The room have a fully stocked kitchen (including a full size fridge) There is a couch (fold out bed) that has a retractable privacy curtain.  We had the two bed room.  These beds were clean and comfortable.There is a large flat screen tv with a very large desk/work area.The bathroom is also large and clean.Would recommend this hotelMore</t>
   </si>
   <si>
+    <t>Abby L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r551162039-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -423,6 +444,9 @@
     <t>We stayed here for one night during the Cotton Bowl.  This hotel is one of the nicest I've stayed at in quite some time!!!!  The staff was extremely nice!  Our room was very clean and we had no issues during our stay.  The breakfast was good and morning staff was very upbeat and friendly!  Would definitely stay here again!!!  Keep up the great work!More</t>
   </si>
   <si>
+    <t>dvsullivan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r551073950-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -441,6 +465,9 @@
     <t>Home2 Suites in Grand Prairie, Texas exceeded my expectations from reservations to check out.  Because of the service received, we are looking forward to staying at Home2 Suites when traveling in the future.More</t>
   </si>
   <si>
+    <t>Candy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r548767533-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -468,6 +495,9 @@
     <t>I enjoyed the accommodations as they were clean &amp; bright.  The exhaust fan in the bath was non- existent however which made the mirror &amp; walls fog up during a shower. The light switches near the hall exit door only operated together and not separately.  The complimentary breakfast was not to my liking however my friends liked it.More</t>
   </si>
   <si>
+    <t>Terrah L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r548245188-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -495,6 +525,9 @@
     <t>This was seriously the best hotel I’ve stayed at in forever! From the check in process to check out it was incredible! I was able to get early check in which was amazing because I just drove from south Texas. My amenities were given to me (and I was able to choose my snack, which was great cause I was starving). Digital key was great like always! I was granted my late checkout which helped out so much!!!!I really loved this property, so much a few days later when I went back to the city I stayed there again! It’s nothin like amazing customer service. Great hotel. More</t>
   </si>
   <si>
+    <t>212tobyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r548084683-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -519,6 +552,9 @@
     <t>Loved our stay.  Great new room design. Kitchenette was more than adequate with a nice big refrigerator.  The added couch was nice and pull out bed was ok.  Breakfast area a little crowded - had to share a table.  But overall good! Would stay again!More</t>
   </si>
   <si>
+    <t>Edward M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r547810135-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -543,6 +579,9 @@
     <t>Clean hotel, with relatively new rooms.  Decent workout area.  The complementary breakfast was ok.  They offer a variety of premade sandwiches that you have to microwave.  Nothing within walking distance so you'll need a car.  Over good experience and would stay again.More</t>
   </si>
   <si>
+    <t>tonyay761</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r547457963-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -567,6 +606,9 @@
     <t>Hotel has awesome front staff whom go above and beyond to make you feel at home.  Room is very large.  Breakfast is typical complimentary but did have several breakfast sandwich options.  Extremely easy to get to from highway and close to several attractions.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Mary A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r545413050-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -591,6 +633,9 @@
     <t>Excellent hotel with lots of amenities and great price. We loved the breakfast items selection. It was very nice and easy.  The fire pit area was very nice and relaxing. The cleanliness of the hotel was something our whole group commented about and was a welcome site after some of the other hotels we had stayed at recently.More</t>
   </si>
   <si>
+    <t>601virgilt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r543503640-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -618,6 +663,9 @@
     <t>Nice, comfy place to stay.  Close to AT&amp;T Stadium.  Breakfast was fantastic.  Staff friendly and knowledgeable.  Lots of things to do close by, shopping, restaurants, Six Flags and other attractions.  Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>richardbY7659PN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r539597683-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -642,6 +690,9 @@
     <t>Was disappointed in my stay at this hotel.  Wasn't impressed with the decor.  Did not like walk in shower as only option for bathing and was annoyed with freezing cold shower after a long day. On check out the clerk failed to apply hilton points to my account after being asked twice to do so.More</t>
   </si>
   <si>
+    <t>236angiek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r539203222-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -684,6 +735,9 @@
     <t>Very clean and comfortable accommodations. Lobby and common areas seemed new and clean. Very pleasant staff helped with all questions and needs. Complimentary breakfast was adequate, but very nice presentation and staff. Bed was comfortable, room was quiet and roomy, and internet service was quick and reliable. Kitchenette was furnished for meal preparation and in-suite dining. Fresh towels were available upon request. Location was within driving range of multiple restaurants and stores.More</t>
   </si>
   <si>
+    <t>kiunih</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r537639298-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -726,6 +780,9 @@
     <t>The room looked great. I loved the bathroom. But when I went to bed the sheets were wrinkled and itchy as were the pillow cases. I called the front desk and told them. The lady offered new sheets but I did not feel like having to put them on so I stripped the bed of sheets and pillow cases and slept under four blankets instead. The front desk and assistant manager comped my room.More</t>
   </si>
   <si>
+    <t>lori t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r535077477-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -750,6 +807,9 @@
     <t>This was an amazing experience for my daughter’s 10th birthday! I love the location, staff, and the attentiveness I received! The pool was nice, the fire pit was warm and inviting. So many great amenities to choose from for this stay.More</t>
   </si>
   <si>
+    <t>dillonm818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r534480559-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -768,6 +828,9 @@
     <t>The staff were amazing throughout the entire stay. Everything was super clean and my wife and i really enjoyed the fire pit. We sat out there every night. The breakfast was wonderful and so were the beds! We wanted to take the sheets home. My wife and I WILL DEFINITELY be returning next year!More</t>
   </si>
   <si>
+    <t>Kennieth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r533813629-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -786,6 +849,9 @@
     <t>I was extremely impressed with the cleanliness and size of my suite! I guess when I booked I didn't notice that it would be so grand for the price I was given.  The size of the fridge, the silverware, etc...everything was first class!More</t>
   </si>
   <si>
+    <t>crystallynnp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r526191442-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -813,6 +879,9 @@
     <t>I would recommend this stay to any one . Better than a 5 star stay very updated  and clean and comfort, Also great stay for families  . And lots of accommodations as well as the surrounding  access to many malls and shopping and restaurants as well as grocery stores . Great highway access .More</t>
   </si>
   <si>
+    <t>josephinez502</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r523434021-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -837,6 +906,9 @@
     <t>This is a great place to stay if you are visiting Grand Prairie.  Easy to get to off of the highway and near restaurants.  The hotel is clean, quiet and comfortable.  Service is great.  The room was environmentally friendly and the beds were very comfortable.  Recommend this hotelMore</t>
   </si>
   <si>
+    <t>_drmarvinjmoore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r521493090-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -864,6 +936,9 @@
     <t>I spent one night here to attend a funeral.  The rooms were very large and were very clean and new.  The breakfast was satisfactory, but somewhat different.  They had the typical waffles, cereal and fruit.  Additionally, they had breakfast sandwiches which you heated in the microwave.  That was different, however, the sandwiches were tasty.  I had a problem when I checked out.  I talked to the manager and explained my position, he explained his position and then asked me what I wanted to be a satisfied customer.  I told him and he went above and beyond my expectations.  I would definitely recommend someone staying there.  It was a very positive experience even though there was a small problem.More</t>
   </si>
   <si>
+    <t>Jenni C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r521043107-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -888,6 +963,9 @@
     <t>Suites are new and modern looking but room is set up very strange with a counter stretching across one side of room. Kitchen crammed into the opening of room. Better hope no one has the refrigerator door open and someone else tries walking in at the same time. Bathroom is very small with little room to open the door in front of the toilet. Did not like having to request housekeeping and even at that we only got fresh towels and our garbage emptied. Beds never made in our 3 day stay. You have to stay for at least 5 days to have your bed made. Call me crazy but when I'm on vacation, I enjoy coming back from a day of touring to a freshly cleaning room with a made bed, and I don't want to have to call to request it! It is not what I would expect from a Hilton. Staff was very pleasant and the rest of the hotel was well kept and clean. The beds were comfortable and the air worked well.More</t>
   </si>
   <si>
+    <t>Dawna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r521030974-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -903,6 +981,9 @@
     <t>We stayed here for 4 nights - they forgot to link my HH to my account. They quoted us a military price of $99 a night but charged us $125 a night, never should us a bill prior to checking us out and when I told them they said it was too late. They would leave a message for the GM and he would be in contact. I called HH and they said my points would come through at midnight as they did not link things at time of registration and they would send an email / message to the GM. I have contacted HH customer service 4 times and get the same BS. They all send messages to the GM who does nothing. We are out 4 nights of points and over charged over $100 and no one cares.  This is too bad as a nice hotel, with some great staff but obviously a GM who is not qualified to run and knows nothing and does not care about customer service nor satisfaction. I did on seeing your bill before having them check you out. So much for being a Hilton Honors member. Beware!!More</t>
   </si>
   <si>
+    <t>albertcR7508BH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r520126698-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1008,9 @@
     <t>Excellent hotel with warm and welcoming staff.  We fled here from Hurricane Harvey and were made to feel at home.  Comfortable bed, versatile suite with kitchenette, excellent breakfasts (appreciated whole grain options), dog friendly, laundry facilities, and nice pool and exercise facilities.  Internet connections were fast.  All around excellent!More</t>
   </si>
   <si>
+    <t>916careys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r519231273-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1029,9 @@
     <t>Great place to stay for business or personal travel. The room was clean, comfortable, and the location was near where I was conducting business in town. The staff was friendly and efficient. I will definitely stay there again in the future.More</t>
   </si>
   <si>
+    <t>D162FVdeborahk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r518644297-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1056,9 @@
     <t>Hotel had all amenities I would want and the staff was helpful, professional, and pleasant.  Breakfast has choices to microwave and/or toast. Hotel was clean and accommodating.  I would stay there again.More</t>
   </si>
   <si>
+    <t>bethg527</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r516375630-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1083,9 @@
     <t>We needed a room for four adults that had three beds. Our suite was perfect for this. We had two queen sized beds and a full size sofa sleeper. There was plenty of storage space for someone on an extended stay. The kitchenettes was really nice. The bathroom could have been a little bigger, though. More</t>
   </si>
   <si>
+    <t>Ken B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r515316273-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1110,9 @@
     <t>From the staffs professional and friendly demeanor, their well trained and genuine care of providing an excellent stay to the quality of the room and hotel, you will enjoy a distraction free experience at the Hilton Home2 Suites in Grand Prairie. It was my first stay at this hotel but it won't be my last as I return to Dallas for business each year. More</t>
   </si>
   <si>
+    <t>M4373EQjanec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r511569210-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1137,9 @@
     <t>sink disposal had a foul smell, the shower doors were stuck and water got all over the floor, window shade was stuck and I could not pull down. Forgot to let staff know when I was told that I would not be getting a detailed invoice. Very disappointed. More</t>
   </si>
   <si>
+    <t>Kim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r511298550-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1155,9 @@
     <t>Modern, clean, large rooms with kitchenettes.  Plenty of work space in the rooms.  I would definitely stay here again.  Only drawback is that there is no restaurant, but there are several close by.  Good security.  Good experience!More</t>
   </si>
   <si>
+    <t>612kennethj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r510381809-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1182,9 @@
     <t>Very clean rooms,with full size refrigerator,microwave and dishwasher!! Excellent Place to stay! This Hotel has a excellent location to get to Dallas,or Ft.Worth area..,there's plenty of restaurants in the area!More</t>
   </si>
   <si>
+    <t>Elijah R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r509910799-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1206,9 @@
     <t>We had our baseball team booked here, from the time of booking it was a great experience to the very end. Restaurants were close and the staff knew how to handle 12 14 year old kids running around the hotel. They had a a really neat popsicle party for us and accomadated everything we needed. The two queen studio suites were great for sleeping multiple kids per room. Renee the Director of Sales was amazing she made our stay great!More</t>
   </si>
   <si>
+    <t>krs1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r508225727-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1233,9 @@
     <t>Stayed at the Home2 Suites in Grand Prairie for 4 days last week and I really enjoyed the accommodations. They had comfortable rooms, many amenities in the fire pit - gym - pool - laundry, and a nice selection of food for the continental breakfast. Texas is very hot at 105 degrees over this period and the AC was at good levels throughout the hotel too. Overall, I would highly recommend this hotel for value and guest experience.  I must also point out that Barbara (the concierge) was also well informed and very good at customer service. Thank you Barbara for your service that contributed to my day. The housekeeper (Noyemi ??) was also very kind, prepared the room well, and would ask how my day was when greeting me. I suspect this comes from Home2 selecting staff that show good interpersonal skills.Highly recommended and keep it up!More</t>
   </si>
   <si>
+    <t>ambam1881</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r504313826-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1260,9 @@
     <t>The staff was smiling, relaxed, and super friendly. The room was clean and the digital check-in process was very easy. It was easy to access from the interstate but the rooms were still quiet despite a full hotel. More</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r503059259-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1287,9 @@
     <t>Very strong smell of VOCs in lobby, elevator and room.  My family had headaches while in the room.  Breakfast is plastic wrapped, chemically preserved, polyester-tasting food you cook yourself in a microwave.  No buffet like Marriott branded hotels.  Second morning we ate elsewhere, it was so bad.More</t>
   </si>
   <si>
+    <t>chivatomsw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r502304461-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1314,9 @@
     <t>First time at this location.  I would not stay at this particular location again. The location of my room was near several times families with kids, and was very noisy as the kids played in the hallway.  Hotel staff did not intervene,More</t>
   </si>
   <si>
+    <t>Austin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r500697939-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1344,9 @@
     <t>This hotel accommodated myself and family of 3. We enjoyed the suite we lodged-in alongside the room amenities including extended sofa. A well deserved microwave to warm food for the kids and standard refrigerator. My kids still talk about the enjoyable breakfast we enjoyed at this hotel. My kids were able to swim while we watched over them. We were so pleased when we visited the outlet mall, just five minutes away from the hotel, which became more of a daily thing for us, since my family enjoyed shopping at various brand names shops.More</t>
   </si>
   <si>
+    <t>BEE199329556</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r500504660-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1368,9 @@
     <t>The Home2Suites is a new build - very modern, wide spaces, tall ceilings, large floor plans, walk in showers, all new and clean.  Our family suite had a pull out sofa along with two queen beds with separate kitchen area and modern bath and vanity.  Desktop work space, amble dresser space, decent closet space.  Breakfast was good, slightly crowded seating area.  Staff was consistently polite and professional.More</t>
   </si>
   <si>
+    <t>Stephanie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r490449927-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1384,9 @@
   </si>
   <si>
     <t>Very spacious room, property is pretty new, good selections at the complimentary breakfast, and nice area in main lobby area to eat, or watch tv, or work on computer. I also liked the stand alone shower with the shampoo and shower gel dispensers on the wall.</t>
+  </si>
+  <si>
+    <t>Jerome M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r489382288-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -1292,6 +1421,9 @@
 It was very alarming that neither management nor any hotel representative came to check on our mental wellness as registered guests. We were along and had to rely on self-preservation.  After the police finished their investigation and furnish the guests/victims with police service numbers, I went to...“Guest Beware of Unsafe Hotel!! Terrible Experience”My family and I stayed at the HOME2 Suites by Hilton (2123 W. Interstate 20 Grand Prairie, TX 75052) during Memorial Day Weekend 2017. We were asleep and frantically awaken around 4:45 am by neighboring guests banging on our door and screaming that multiple vehicles had been burglarized while parked in the designated parking lot of the hotel. It was the most howling experience for me and most especially for my two grandkids. I hysterically jumped out of bed, left my grandkids and fiancé in the room and rushed down to my vehicle which was properly parked adjacent from the front desk.  Upon a closer examination of my vehicle, the alarm was still sounding, my passenger’s rear window busted, rear seat raised up, personal items strewn about the interior and my wallet, cash and sunglasses were stolen.   As I canvassed the immediate parking lot of the vehicles, I observed police officers taking police reports from multiple guests who vehicles were also burglarized. I witnessed (8) eight vehicles with their windows smashed. My family and other guests become very concern for our safety and security of vehicles. It was very alarming that neither management nor any hotel representative came to check on our mental wellness as registered guests. We were along and had to rely on self-preservation.  After the police finished their investigation and furnish the guests/victims with police service numbers, I went to the front desk and asked for a manager. I was informed the General Manager (Mark Forcelledo) was scheduled to arrive at about  9:00 am. It was very alarming that employees were knowledgeable about vehicles being burglarized. However, management failed to inform unsuspecting guests and provide a minimum level of safety/security for their guests.   Since I was traveling with grandkids, I had to find a carwash to vacuum out glass from the entire rear passenger area of my vehicle. It was 11:00 am the same morning and I had not received a call from a hotel representative nor , General Manager Mark Forcelledo. I then call called the hotel and asked for Mark Forcelledo who immediately stated he was awaiting my call”.  Forcelledo was already aware of the incidents, during which time I informed him that my personal property, wallet and cash was stolen from me vehicle.  Forcelledo expressed no empathy for me as a guest who was a victim at a hotel he manages; nor any hotel hospitality or concerns.  Mark Forcelledo asked me did I receive a police service number. I told him “yes”. I then asked Mark Forcelledo to adjust my bill as a gesture of goodwill so that I could free up some funds to return home. Mark Forcelledo informed me that making an adjustment would admit guilt by the hotel and recited to me the hotel’s “posted signs in the parking lot indicating the hotel’s not responsible for your vehicle while parked in the HOME2 Suites parking lot. I informed Mark Forcelledo those signs were a general disclaimer and that he is not a lawyer. I informed General Manager Forcelledo he should focus on guest’s safety and recovery from a terrible experience at his hotel. Forcelledo then added insult to injury by offering me a $100.00 bill adjustment.Mark Forcelledo… you can keep the $100.00 and treat his family to lunch. $100.00 is peanuts to me. My family’s safety and protection is more valuable.  I loss over $1,500 in personal property in addition to a $500 deductible to have my damaged vehicle repaired.This was the most horrific hotel experience in my life. And the General Manager,  Mark Forcelledo  made matters worse by adding insult to injury.  Forcelledo had no people skills nor hospitality skill-set.P.S. Guest Beware for your safety/security and protection of your personal items. I strongly recommend The  HOME2 Suites by Hilton @ (2123 W. Interstate 20 Grand Prairie, TX 75052) provide overnight security presence for the safety of their guests.cc: Board of Directors Hilton Hotels       Grand Prairie Board of Commissions       Trip AdvisorMore</t>
   </si>
   <si>
+    <t>laurenhJ4497GG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r487184295-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1439,9 @@
     <t xml:space="preserve">The price is not over the top.  The breakfast is amazing compared to most hotels that are near by. Hotel is clean and rooms come with a lot of appliances. The staff is very nice and helpful. The complementary internet is a little slow, but I wouldn't pull my hair out over it. </t>
   </si>
   <si>
+    <t>pj618</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r486685608-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1457,9 @@
     <t xml:space="preserve">First time to stay at Home2 Suites.  We will most definitely stay at another Home2 Suites again.  This is a little different concept with mini kitchen.  We did not need on this trip, but will certainly keep this hotel in mind if we ever need this amenity.  The breakfast was quite good and lots of choices. </t>
   </si>
   <si>
+    <t>wick1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r483765931-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1475,9 @@
     <t>Hotel is just ok. Kind of a pain when coming from west but other than that it's great. Restaurants in the area but none within walking distance. Breakfast is more fast food than a meal so I wasn't a fan but rooms are large, sheets are insanely soft and a full size fridge. Great place to spend 2 weeks for work. Direct access to bush turnpike is a big plus</t>
   </si>
   <si>
+    <t>407kimberlyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r483794234-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1490,9 @@
     <t>I love the Hilton brand and what it stands for. This new Home2Suites just adds to everything that is Hilton The staff the area, the room are all a+ in my book. When i travel I want the best without the crazy prices and this will give this to me.</t>
   </si>
   <si>
+    <t>cindydoyle0754</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r481709901-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1508,9 @@
     <t>This Home2suites is not like others we've stayed in. Everything went wrong from arriving til checking out. We had a confirmation for a King suite and was assured by staff at the hotel upon making reservations that would not be a problem. Got there and she sent us to the third floor with a double room...went back downstairs to be told the whole top floor was booked and no kings available. Should have left at that point and find another hotel. Our room had stained carpets, the bedding looked as though it had already been slept in, the sliding shower doors were broken, and pillow cases that half-hanging out pillows were exposed. Whoever booked the rooms above us spent the night slamming doors, walking around constantly so loud I really thought they might come thru the ceiling any moment. Needless to say we didn't stay for breakfast and the man that checked us out was anything but hospitable. Sorry Hilton but we've X'd this place off our list and would not recommend to anyone!More</t>
   </si>
   <si>
+    <t>761bb400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r481039201-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1538,9 @@
     <t>Our room types were changed without our knowledge. Our rooms were on different floors. They were dirty. The staff did. It care that our reservations were changed, that the rooms were dirty, or that were were on different floors. For this to be a hotel that is less than a year old our experience was horrible. I will never stay here again. More</t>
   </si>
   <si>
+    <t>ISparkle2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r479208306-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1559,9 @@
     <t>We were very excited to stay at Home 2 Suites for the first time because we love Embassy Suites. Pros: Loved the room design, kitchenette, breakfast &amp; staff was nice.  Cons: Digital check in did not work &amp; there was additional delay due to trouble activating the key cards. Our room was left off the list for housekeeping. Room definitely was not soundproof because we could hear noises  &amp; closing doors from other rooms day/night. The bathroom sink is not accessible when bathroom door is open &amp; the reach is too far for toilet paper. it was a stretch for me,  an adult. Definitely would be difficult for children.  We may stay again for the breakfast &amp; kitchenette and would recommend for short stays but need earplugs.More</t>
   </si>
   <si>
+    <t>UkieDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r479020406-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1580,9 @@
     <t>This new hotel was awesome.  Can't say enough about the bed, the sheets, and the comforter!  What a great night's sleep!  I got the king-sized bed with a walk-in shower.  The room had a sofa, TV, full-sized refrigerator, kitchen area, dishwasher, coffeemaker and lots more.  Free breakfast was great, too.  There was quite a crowd at breakfast but I still got my food fast and it was good.More</t>
   </si>
   <si>
+    <t>markwJ3353QG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r477619777-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1619,9 @@
     <t>If you are on a business trip or on vacation - this hotel is a place that offers a lot to a traveler.   The hotel is so clean and comfortable.  The workout space is great.  The staff is friendly.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>paulmH1752QE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r475863120-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1640,9 @@
     <t>Enjoyed my stay very much. Room was nice and spacious. Bed was comfy and pillows were soft. Bathroom was huge and the lighting in the bathroom was nice and bright. Close to lots of restaurants and shopping areas.More</t>
   </si>
   <si>
+    <t>candie_baker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r472726080-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1661,9 @@
     <t>My stay was excellent! The location is nice the staff greeted me with a wam welcome. The only problem I had I was quoted one price and was charged for two nights when I was told o would be charged for one night.More</t>
   </si>
   <si>
+    <t>kikij990</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r471954577-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1688,9 @@
     <t>This stay was almost perfect except for when we pulled the covers back to get ready for bed, there were really dark brown stains on the sheets I don't even want to know what it was but I have a pretty good idea .... More</t>
   </si>
   <si>
+    <t>P5597STjoelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r467903868-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1715,9 @@
     <t>Stayed only a few hours to sleepBefore my dads surgery . So I really couldn't tell you what all the other stuff was like . We used the beds , and one of us used the coffee pot . Took showers , and left More</t>
   </si>
   <si>
+    <t>Kmcmakin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r467876498-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1757,9 @@
     <t>Got this place at the last minute to attend a concern nearby.  I paid less than normal because I used some Hilton points.  I mention this because for what I paid (about 40% off normal) I think the hotel is worth it.  At full price, I question the value.  The location is good to get into Dallas or Fort Worth in a hurry but the hotel itself is a little difficult to reach.  We drove past it once because it was so mixed with another hotel that I though it was the same.In any even, the whole place is clean, well decorated and comfortable.  The breakfast was good.  Vanessa at the front was very nice and helpful.  I'd stay there as long as the price point what I spent but any more than that and I'd probably stay next door.More</t>
   </si>
   <si>
+    <t>Jeff &amp; Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r466158042-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1784,9 @@
     <t>This hotel is clean, smells good, safe &amp; very comfortable beds.. the staff is Awesome.. especially Xavier &amp; Matias.. they were always there with a warm welcome smiling face, especially after a long day of work.. I stayed there for 3 weeks &amp; would stay there again always.. I am very particular &amp; I travel a lot.. I appreciate a nice hotel, helpful &amp; respectful staff.. food is available @ the exit but a couple of exits up is great shopping &amp; more restaurants.. More</t>
   </si>
   <si>
+    <t>garycQ8634NW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r465876184-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1814,9 @@
     <t>Great value and the best bed, sheets and pillows I've ever experienced. I stay in hotels half the year and I will always search for Home2Suites for mybstay. If anyone can tell me where to purchase the microfiber sheets they use, I'm open ears!More</t>
   </si>
   <si>
+    <t>latodreadw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r464834596-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1685,6 +1865,9 @@
     <t>I stayed in this hotel on Sat night Feb 25th 2017.  All the decent hotels in Cedar Hill, where i was visting my mother in a retirment home were booked. La Quinta sent me over to G.P.  about 10 miles away.  The hotel was clean well lit and I got the last room  Everything was what one would expect for a $125/ night motor lodge.  The location is practically right next door to a Walmart and Sams  to which i walked over to in the morning. the area of town was good compared to alot of other places one could find themselves in this part of metro Dallas  I recommend it.More</t>
   </si>
   <si>
+    <t>Dsstamps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r462928803-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1886,9 @@
     <t>Location is good. Staff was friendly. Room was very spacious and laid out well. Yes we will stay here again. Location is near several Restaurants and has a very quick drive over to Arlington if needed. More</t>
   </si>
   <si>
+    <t>johnnysE8842LZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r462791201-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1913,9 @@
     <t>We had a great time went to the American rodeo. The front desk was helpful and everything was great other than only one out of the tree of us had hot water that was the only issue we would stay here again. More</t>
   </si>
   <si>
+    <t>gbemi s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r462547541-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1754,6 +1943,9 @@
     <t>I enjoyed my one night stay with my family  here. The staff were wonderful,  the rooms beautiful,  the bathroom  cozy and breakfast was hot! Though i did not check out the gym but it looked pretty ok. We stayed on the 13th floor and the view was breathtaking. I would definitely stay here whenever i am in grand prairie. More</t>
   </si>
   <si>
+    <t>03-28-15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r462154583-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1772,6 +1964,9 @@
     <t>we had a great time location was even better then i thought lots of shopping done  family visit with no problem the breakfast was so different and good.no noise was able to sleep late if i really wanted too.More</t>
   </si>
   <si>
+    <t>Alimad68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r460449072-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1796,6 +1991,9 @@
     <t>Beautiful hotel, located right off the highway.  Rooms were very comfortable and spacious. The facility was very clean, smelled great the staff who checked us in was very friendly and polite. Loved the fire pitand pool?More</t>
   </si>
   <si>
+    <t>Charles M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r460048805-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1814,6 +2012,9 @@
     <t>This hotel is in the right location but if you like barking dogs all night and the smell of dogs this is the one for you nevertheless the bed was uncomfortable and bedding smelt stale, I'm not the one to complain usally but this stay was terrible not to mention my digital key didn't work after the entry good luck with this oneMore</t>
   </si>
   <si>
+    <t>lashawndat2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r460282553-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1835,6 +2036,9 @@
     <t>I check in a little late and was welcome by Xavier he was very kind, after a long drive from Colorado. the room was very clean and the breakfast was the best part its nice to have individual wrapped items, the only thing I would improve is more room in the breakfast area when it is busy it takes a while. but still a great hotel.More</t>
   </si>
   <si>
+    <t>csmith27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r459778375-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2063,9 @@
     <t>Better value for your money. The rooms are designed very thoughtfully with the goal of providing more room for guests. The furniture is flexible, and converts to provide additional space when traveling with my family.  I tend to keep my room pretty clean, so I tend to not need a complete room clean everyday. Staff is pleasant and resourceful. More</t>
   </si>
   <si>
+    <t>Renee V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r459903386-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1874,6 +2081,9 @@
     <t>This hotel was super welcoming and clean! Every staff member that I met was super friendly and helpful. The rooms were spacious and VERY clean. Would highly recommend to this hotel to anyone. Great stay!More</t>
   </si>
   <si>
+    <t>zendreg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r459564626-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2108,9 @@
     <t>I really enjoyed my stay at this hotel. Excellent overall service. I would definitely recommend this hotel to other family members and friends. This hotel was new and clean. Was located near stores and restaurants. More</t>
   </si>
   <si>
+    <t>tnpcom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r459317196-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1913,6 +2126,9 @@
     <t>Normally when I visit, I stay at the LaQuinta Hotel next door.  I noticed at the last minute during booking that is hotel was finally completed.  Plus, I was able to book a one bedroom suite for only $30.00 more the the hotel next door.  So, I thought that was great.  When I arrived, I noticed this was also a pet-friendly hotel.  This was my main problem with LaQuinta.  I am highly allergic to animal hair.  I questioned the cleaning method after a guest with animals.  I was told the rooms go through a top to bottom cleaning for an hour.  I was happy with that answer, until I got into the room.  The room still had animal hair all over.  I was itching the my whole trip.  Sigh.  I have no clue why these hotels don't have sets of rooms for people that have issues with animal hair, like smoking and no smoking rooms.  I have decided I am not going back to this hotel.More</t>
   </si>
   <si>
+    <t>kuwitzkymom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r458964404-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2153,9 @@
     <t>Great place to stay for watching son play college baseball. Staff are as friendly and helpful and the workout facility has adequate equipment for both my husband and I. Breakfast was delicious and well presented. More</t>
   </si>
   <si>
+    <t>roxannemgreen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r456576755-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1961,6 +2180,9 @@
     <t>I really loved it here. It was my first time staying at Home2 and it really felt like my home too lol. You can't beat the price and amenities. The staff was very friendly and helpful. The location was perfect! Stay here. You can't go wrong. More</t>
   </si>
   <si>
+    <t>Lori Jeannine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r456332175-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1979,6 +2201,9 @@
     <t>In one word:  SECURITY!!  The hotel itself is very nice, sleek and modern. But it's apparently a prime area for theft! As a hotel, they should be concerned for the safety and security of guests.  Our tailgate was stolen while parked in the parking lot at Home2. Yes, the TAILGATE!  I have recommended they hire security. Grand Prairie police even said this property and the holiday inn down the road are hot spots for theft!  If I had known that, I would have NEVER reserved a room at this property.  Management and owners should be VERY well aware of this security issue and hire security for the parking lot.  If management is not aware, it is because they are not taking guest reports.  I specifically asked about filing an incident report with the hotel and the rep stated that I only do that with police. The front desk Rep did help me with the number to police. So, I was appreciative of that.  Hopefully their security cameras were ON and active and got the thief in action and we can prosecute!More</t>
   </si>
   <si>
+    <t>768erickf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r454114182-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2003,6 +2228,9 @@
     <t>My wife and I had a very good experience. The breakfast was really delicious. The hotel looked new, but the staff kept it extremely clean and they were very courteous. The room was modern and the bed was comfortable. More</t>
   </si>
   <si>
+    <t>Katie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r453181574-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2255,9 @@
     <t>Overall, it was a good stay at Home2 Suites. We checked in around 8:30 after a Cowboys game and stayed one night.Pros: The room was extremely clean and feels new. The bed and sheets were very comfortable, and there was an excellent light-dimming curtain. Even though we didn't use it, the kitchen area was very well-appointed and stocked with dinnerware. Very convenient location (right off I-20).Cons: We had to wait in check-in line for about 15 minutes. The process seemed really slow. We received 2 Queens instead of requested King room, but were too tired to go back down to the lobby and try to switch. The room walls seemed pretty thin--we heard people yelling in the middle of the night. The bathroom door opens into the bathroom, making it feel a bit cramped, and the water pressure in the sink and shower was pretty low.More</t>
   </si>
   <si>
+    <t>Erikistheman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r452439360-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2282,9 @@
     <t>I have recently fallen in love with Hilton's Home2 suites.  I just wish they would have sugar free syrup for us diabetics. The staff at this place were exceptional. The rooms were clean.  I will be back.   More</t>
   </si>
   <si>
+    <t>tiffinyh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r452235023-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2075,6 +2309,9 @@
     <t>Very comfortable, large rooms that easily accommodated our family of 5.  Pefectly decorated. If there was one thing I would change is make the bathroom a tad bigger otherwise super stay. Would definitely stay again. More</t>
   </si>
   <si>
+    <t>saraescamilla04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r447513358-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2102,6 +2339,9 @@
     <t>I recommend this hotel, great service, friendly staff, I felt very comfortable, had a great nights sleep, very little noise and room was very clean, as was the bathroom, I will definitely stay here again!More</t>
   </si>
   <si>
+    <t>romi15sympatica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r447504122-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2120,6 +2360,9 @@
     <t>I recommend this Hotel,Love this place, Excellent environment, Staff very helpful, room are clean , comfortable and super big, I spend a weekend with my family and I feel like i was at home, Thanks to HOME 2More</t>
   </si>
   <si>
+    <t>Debra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r447284496-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2144,6 +2387,9 @@
     <t>I recommend this hotel!! Best service and the friendliest workers in town! They were very accommodating  with our needs and they were fabulous from the moment we arrived to the moment we left! They ensured our family stay was amazing!!! i recommend this hotel to everyone!More</t>
   </si>
   <si>
+    <t>Sendy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r447055030-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2168,6 +2414,9 @@
     <t>I highly recommend this place. Service was excellent from time we arrived and at time of departure,  great food, staff very helpful  and  room was very clean and comfortable. We truly enjoyed our stay More</t>
   </si>
   <si>
+    <t>Debra P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r446927169-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2183,6 +2432,9 @@
     <t>We booked a one bedroom king suite for one night on Hotels.com and paid in advance.  Upon arriving a week later, I checked in and went to my room.  It was a king studio, not the suite I paid for.  When I went down to speak with the person at the front desk, he stated they were booked.  I asked for the difference to be refunded, as a studio was less than the one bedroom suite, and he refused, and told me to contact Hotels.com.  So I called them, and they said they spoke with the hotel, and  the hotel was at fault, as they said the room they booked for me was "having maintenance work done."  I did get offered a credit on a future booking, but it did not help with our sleeping arrangement for that night.  We went down later to ask for two pillows, as we did not see any for the pull out couch, and were told "we don't have any."  Really, not one extra pillow?!?  During the night our ac/heat unit made such a loud noise  (think lawnmower) we had to shut it off.  That was the night it dropped to 17 degrees.  The breakfast the next morning consisted of waffles, and microwave egg sandwiches that were horrible.  Upon check out, I said they would need to check the ac unit in our room due to a horrible noise.  She said "ok", didn't ask...We booked a one bedroom king suite for one night on Hotels.com and paid in advance.  Upon arriving a week later, I checked in and went to my room.  It was a king studio, not the suite I paid for.  When I went down to speak with the person at the front desk, he stated they were booked.  I asked for the difference to be refunded, as a studio was less than the one bedroom suite, and he refused, and told me to contact Hotels.com.  So I called them, and they said they spoke with the hotel, and  the hotel was at fault, as they said the room they booked for me was "having maintenance work done."  I did get offered a credit on a future booking, but it did not help with our sleeping arrangement for that night.  We went down later to ask for two pillows, as we did not see any for the pull out couch, and were told "we don't have any."  Really, not one extra pillow?!?  During the night our ac/heat unit made such a loud noise  (think lawnmower) we had to shut it off.  That was the night it dropped to 17 degrees.  The breakfast the next morning consisted of waffles, and microwave egg sandwiches that were horrible.  Upon check out, I said they would need to check the ac unit in our room due to a horrible noise.  She said "ok", didn't ask how are night was...although I'm pretty sure she knew.  Will never stay at this brand again, especially not here.  Many other better hotels to sleep at, especially at the price I paid.More</t>
   </si>
   <si>
+    <t>raquel a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r443895038-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2210,6 +2462,9 @@
     <t>I went to visit family in Arlington and stayed at the Hilton. The staff is extremely friendly and attentive. The night manager was super helpful with getting me situated into my room, the staff made me feel welcomed from the moment I walked through the front door. The look of the hotel is so modern and clean makes you feel as you are staying in a luxury hotel. More</t>
   </si>
   <si>
+    <t>Drew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r443894901-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2225,6 +2480,9 @@
     <t>When all other things on my trip were going horrible it seemed like this hotel made it the only great thing! Friendly staff and loved their personable attitudes. Anything I asked for was not a problem and very prompt. Will definitely be staying here again when I come back in town!More</t>
   </si>
   <si>
+    <t>Nadia F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r443330098-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2249,6 +2507,9 @@
     <t>Beautiful property!! Housekeeping  does a great job keeping the rooms clean. The check in process was very easy and the staff was very friendly. Everybody I encountered was great! Great job by the management team!!More</t>
   </si>
   <si>
+    <t>Peace W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r443306176-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2270,6 +2531,9 @@
     <t>Love the location, staff very friendly and professional. Room super clean. Why stay at a relatives house, when you can have all the privacy and comfort at a hotel like this one. Great breakfast, great drinks. I highly recommended. Overall its a super nice hotel to stay.More</t>
   </si>
   <si>
+    <t>meuckert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r443165743-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2294,6 +2558,9 @@
     <t>As a Hilton Diamond Member on the road continually I am pleased to say that I am now making Home2 Suites a regular part of my travel lodging.  This property has only been open for a couple of months or so, and it's very tastefully built.  Will keep this in mind for future DFW stays.More</t>
   </si>
   <si>
+    <t>lesliedG7622MH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r441269449-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2318,6 +2585,9 @@
     <t>Very nice hotel. Staff were very helpful, personal and professional. The complimentary breakfast was just right. Would definitely stay here again. Close to the freeway, which made easy access. Shopping centers are nearby.More</t>
   </si>
   <si>
+    <t>Ashley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r440794460-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2342,6 +2612,9 @@
     <t>The staff is friendly and hospitable.  The hotel is new.  However, it is the noisiest hotel I have ever stayed.... did not sleep one night while there.  Do not stay here if looking for a restful, relaxing place.More</t>
   </si>
   <si>
+    <t>Beth A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r439664708-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2366,6 +2639,9 @@
     <t>My only complaint:   We were overwhelmed by the continental breakfast experience on Sunday.   First, the layout was inefficient and ineffective for a seamless streamlined buffet experience. Guests descended on the bar without a clear understanding of where the line started, where to grab plates and utensils, and where to leave. As such the crowd grabbed and pushed to get access to the bar.   Second, trays were not provided, so guests were left struggling to carry their items back to their rooms or seats (that brings me to my next point). Third, there was not nearly enough seating for the number of people on a Sunday morning (understandable). But at least provide trays so guests can comfortably take food back to their room.   Fourth, Joel Olsteen was playing on the television, promoting a specific Christian agenda. During this second Sunday after the election in Texas, it felt like a particular affront to a non-Christian person. In a common space at a Hilton, where I've paid to stay, the last thing I needed was to feel proselytized to and unwelcome.More</t>
   </si>
   <si>
+    <t>Arkansas_Bob_64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r439304124-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2390,6 +2666,9 @@
     <t>The new Home2 Suites is easily accessible just off I-20. We checked in late after an evening concert at the nearby Verizon Theater. The hotel is also close to the Hills Mall and many good restaurants. Very clean and the staff is some of the friendliest we have ever encountered at a Hilton property.More</t>
   </si>
   <si>
+    <t>Kyla J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r438412282-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2414,6 +2693,9 @@
     <t>I was checked in by Xavier who was kind and knowledgeable. I live in TN and have been traveling on a tour for since September and this is the first hotel that didn't feel like a hotel. Later in the evening i was hunger and Xavier let me know all of my choices and even got me a curtesy ride to pick up my food. I am soo very happy with the service and even happier about this big compfy bed i am going to sleep in.Plenty of cabinet space, 50 cent washers and dryers and a kitchenette. Best stay ever!!More</t>
   </si>
   <si>
+    <t>Z6815KDdavids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r437388268-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2438,6 +2720,9 @@
     <t>Rooms are clean, facilities are nice ... service not so good and breakfast was really, really crowded. Poor design of breakfast area. Couldn't find a place to sit and hotel guests were stumbling over each other to get food, dishes, cups, silverware, etc. Really not a good design.More</t>
   </si>
   <si>
+    <t>Philip G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r436999811-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2456,6 +2741,9 @@
     <t>Location was good with good access to interstate 20 and Great Southwest Parkway that i was using for travel.  Very spacious room. Very clean room. Desk people were good and courteous. Night people were very courteous and very helpful. Wal-Mart near. Some main restaurants and fast food places near. Exercise room good. Internet service simple and easy. Enjoyed our stay and will stay again.More</t>
   </si>
   <si>
+    <t>Latoya B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r435749549-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2480,6 +2768,9 @@
     <t>This hotel is new. It is clean and the staff was awesome. Vanessa was very patient and helpful. You added value to my stay. It is in a great location nearby shopping stores, gas stations and restaurants.More</t>
   </si>
   <si>
+    <t>Leobell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r435363635-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2501,6 +2792,9 @@
     <t>Very clean, breakfast is really good. Pool, bbq area and firepit is great especially if you travel with your kids. The staff is customer service oriented. Front desk was so kind, Congrats to Xavier, excellent employee. We will definitely book again there every time we have to be around Arlington.More</t>
   </si>
   <si>
+    <t>dub s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r435310588-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2516,6 +2810,9 @@
     <t>need a place to lay down. I need time to get my life together and get my own things. I need concentration and a new path in life.fjdjejdcjvkvofkfnsksowjrtjvifrudjddjduddududjdjjdjdjddjujfjdjdjdjdfufjcjcjcjcfjfjfjfjfjcMore</t>
   </si>
   <si>
+    <t>Kimberly W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r429922293-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2540,6 +2837,9 @@
     <t>This was our first time at a Home2 Suites by Hilton, and we will DEFINITELY stay there again any chance we get in future!  Awesome value and extremely friendly staff especially Xavier!!!  Loved every minute!More</t>
   </si>
   <si>
+    <t>Mark V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r429169146-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2558,6 +2858,9 @@
     <t>Stayed there for a weekend. Surprising new hotel, the staff said it was open for about a month. Everything was clean, the rooms were quiet even being right next to the highway. The decor was modern in the rooms and they were very spacious. The only area for improvement was the breakfast was very weak. Few offerings and overall not very good. The room rate was very appealing, would stay there again and just have breakfast out.More</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r427540422-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2576,6 +2879,9 @@
     <t>Great new hotel. Stayed on business trip and will go back again. Everything was perfect. Location was good with a great and easy on and off to get to the hotel. Not a lot of restaurants beside the hotel but very close. Would need a car.More</t>
   </si>
   <si>
+    <t>Tina W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r425540478-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2642,6 +2948,9 @@
     <t>Impressed with staff and quality of hotel , location was perfect. The hotel was clean and staff was very pleasant and very professional very knowledgeable of area The hotel rooms where very large and spaciousMore</t>
   </si>
   <si>
+    <t>Nondisclosed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r423591580-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2666,6 +2975,9 @@
     <t>Great location if doing things in the arlington area and brand new location.  Only open a few weeks when we stayed so everything was clean and new. We did have some hot water issues, but managed around them.  However, if you have any issues don't expect management to care. Horrible experience and worst customer service at a hotel I have ever had.More</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r423469315-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -2697,6 +3009,9 @@
   </si>
   <si>
     <t>The staff was friendly, professional and accommodating, especially the young man named Xavier who provided exception assistance.  LOVED EVERYTHING about the suite.  The storage space in the bathroom was great as well as the soap and shampoo dispensers in the shower.  The kitchen was AWESOME--every amenity of home!  Appreciated the partition separating the bedroom from the living space since one of us is an early riser and we were able to function without disturbing the other one still sleeping.  The mattress was the most comfortable of any hotel we've stayed in.  Great workout room and laundry room!  Wonderful breakfast and choices--love the healthier selections while still quite filling.  LOVE everything about Home 2.  This is an exception Hilton brand with wonderful amenities and services!More</t>
+  </si>
+  <si>
+    <t>William H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d10682816-r423194031-Home2_Suites_by_Hilton_Dallas_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -3219,43 +3534,47 @@
       <c r="A2" t="n">
         <v>65366</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156573</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3267,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65366</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3334,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -3353,37 +3676,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3407,7 +3730,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -3420,37 +3743,37 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3462,56 +3785,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65366</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156575</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -3533,56 +3860,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65366</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156576</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3604,56 +3935,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65366</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156577</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3675,56 +4010,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65366</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>10371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3742,56 +4081,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65366</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156578</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3809,56 +4152,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65366</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156579</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>126</v>
       </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3880,56 +4227,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65366</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3951,56 +4302,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65366</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156580</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -4012,56 +4367,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65366</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156581</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -4083,56 +4442,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65366</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>22026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -4154,56 +4517,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65366</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156582</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -4223,56 +4590,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65366</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>41404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -4294,56 +4665,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65366</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156583</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -4365,56 +4740,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65366</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156584</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -4436,56 +4815,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65366</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156585</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4507,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
@@ -4526,37 +4909,37 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4578,56 +4961,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65366</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156586</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4649,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -4668,37 +5055,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4718,56 +5105,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65366</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156587</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4789,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65366</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156588</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4860,56 +5255,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65366</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4931,56 +5330,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65366</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -5002,56 +5405,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65366</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156591</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -5073,56 +5480,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65366</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156592</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -5140,56 +5551,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65366</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156593</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5201,56 +5616,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65366</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156594</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5262,56 +5681,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65366</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156595</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5333,56 +5756,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="X32" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65366</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156596</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5404,56 +5831,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65366</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156597</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5475,56 +5906,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65366</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156598</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5546,56 +5981,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65366</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C36" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5617,56 +6056,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65366</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156599</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -5688,56 +6131,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="X37" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65366</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>12669</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5749,56 +6196,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65366</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156600</v>
+      </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O39" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5820,56 +6271,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="Y39" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65366</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156601</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O40" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5891,56 +6346,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="X40" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="Y40" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65366</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156602</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5956,56 +6415,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="X41" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65366</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156603</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="K42" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -6027,56 +6490,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="X42" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65366</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C43" t="s">
+        <v>402</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -6098,56 +6565,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="X43" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65366</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156604</v>
+      </c>
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -6169,56 +6640,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="X44" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65366</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>19504</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -6236,56 +6711,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65366</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156605</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6303,56 +6782,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65366</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>438</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6376,41 +6859,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65366</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>28534</v>
+      </c>
+      <c r="C48" t="s">
+        <v>444</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="J48" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="L48" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -6427,56 +6914,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="X48" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="Y48" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65366</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156606</v>
+      </c>
+      <c r="C49" t="s">
+        <v>453</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6500,50 +6991,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65366</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156607</v>
+      </c>
+      <c r="C50" t="s">
+        <v>459</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6567,50 +7062,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65366</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>5189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>465</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6624,50 +7123,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65366</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156608</v>
+      </c>
+      <c r="C52" t="s">
+        <v>471</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>468</v>
+      </c>
+      <c r="K52" t="s">
+        <v>474</v>
+      </c>
+      <c r="L52" t="s">
+        <v>475</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>426</v>
       </c>
-      <c r="J52" t="s">
-        <v>422</v>
-      </c>
-      <c r="K52" t="s">
-        <v>427</v>
-      </c>
-      <c r="L52" t="s">
-        <v>428</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>386</v>
-      </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6691,50 +7194,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65366</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156609</v>
+      </c>
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="J53" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="K53" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6748,50 +7255,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65366</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156610</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L54" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -6813,56 +7324,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X54" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65366</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156611</v>
+      </c>
+      <c r="C55" t="s">
+        <v>492</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J55" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L55" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6884,56 +7399,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X55" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y55" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65366</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156612</v>
+      </c>
+      <c r="C56" t="s">
+        <v>499</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J56" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K56" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L56" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O56" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6949,56 +7468,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X56" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y56" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65366</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156613</v>
+      </c>
+      <c r="C57" t="s">
+        <v>506</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="J57" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="K57" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="L57" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -7020,56 +7543,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X57" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y57" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65366</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156590</v>
+      </c>
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="J58" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="L58" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -7089,56 +7616,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X58" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65366</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156614</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O59" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -7160,56 +7691,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X59" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65366</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>156615</v>
+      </c>
+      <c r="C60" t="s">
+        <v>526</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K60" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L60" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -7231,56 +7766,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X60" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65366</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>156616</v>
+      </c>
+      <c r="C61" t="s">
+        <v>533</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="J61" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="K61" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7302,56 +7841,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="X61" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="Y61" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65366</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>156617</v>
+      </c>
+      <c r="C62" t="s">
+        <v>542</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="J62" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="K62" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="L62" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -7371,56 +7914,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X62" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="Y62" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65366</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>156618</v>
+      </c>
+      <c r="C63" t="s">
+        <v>551</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="K63" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L63" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7432,13 +7979,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X63" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="Y63" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64">
@@ -7451,37 +7998,37 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="J64" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="L64" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -7499,56 +8046,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="X64" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="Y64" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65366</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>156619</v>
+      </c>
+      <c r="C65" t="s">
+        <v>565</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="K65" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="L65" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7570,56 +8121,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="X65" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="Y65" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65366</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>156620</v>
+      </c>
+      <c r="C66" t="s">
+        <v>574</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="J66" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="K66" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="L66" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7641,56 +8196,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="X66" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="Y66" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65366</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156621</v>
+      </c>
+      <c r="C67" t="s">
+        <v>584</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="J67" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="L67" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="O67" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7712,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="X67" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="Y67" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68">
@@ -7731,37 +8290,37 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="J68" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="K68" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="L68" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7777,56 +8336,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="X68" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="Y68" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65366</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>156622</v>
+      </c>
+      <c r="C69" t="s">
+        <v>601</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="J69" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="K69" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="L69" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7838,56 +8401,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="X69" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="Y69" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65366</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>156623</v>
+      </c>
+      <c r="C70" t="s">
+        <v>608</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="J70" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="K70" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="L70" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7909,56 +8476,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="X70" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="Y70" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65366</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156624</v>
+      </c>
+      <c r="C71" t="s">
+        <v>617</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="J71" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="K71" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="L71" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7970,56 +8541,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="X71" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="Y71" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65366</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>156625</v>
+      </c>
+      <c r="C72" t="s">
+        <v>627</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="J72" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="K72" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="L72" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -8041,56 +8616,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="X72" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="Y72" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65366</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>156626</v>
+      </c>
+      <c r="C73" t="s">
+        <v>634</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="J73" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="K73" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="L73" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -8112,56 +8691,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="X73" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="Y73" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65366</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>40585</v>
+      </c>
+      <c r="C74" t="s">
+        <v>643</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="J74" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="K74" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="L74" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -8183,56 +8766,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="X74" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="Y74" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65366</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>156627</v>
+      </c>
+      <c r="C75" t="s">
+        <v>650</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="J75" t="s">
+        <v>646</v>
+      </c>
+      <c r="K75" t="s">
+        <v>653</v>
+      </c>
+      <c r="L75" t="s">
+        <v>654</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
         <v>580</v>
       </c>
-      <c r="K75" t="s">
-        <v>586</v>
-      </c>
-      <c r="L75" t="s">
-        <v>587</v>
-      </c>
-      <c r="M75" t="n">
-        <v>5</v>
-      </c>
-      <c r="N75" t="s">
-        <v>521</v>
-      </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8254,56 +8841,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="X75" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="Y75" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65366</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>156628</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="J76" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K76" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L76" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8325,56 +8916,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X76" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y76" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65366</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>67638</v>
+      </c>
+      <c r="C77" t="s">
+        <v>667</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J77" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K77" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="L77" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8396,56 +8991,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X77" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y77" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65366</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>156629</v>
+      </c>
+      <c r="C78" t="s">
+        <v>673</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="J78" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="K78" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="L78" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8467,56 +9066,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="X78" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="Y78" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65366</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>156630</v>
+      </c>
+      <c r="C79" t="s">
+        <v>682</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="J79" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="K79" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="L79" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -8534,56 +9137,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="X79" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="Y79" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65366</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>156631</v>
+      </c>
+      <c r="C80" t="s">
+        <v>688</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="J80" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="K80" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="L80" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8605,56 +9212,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="X80" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="Y80" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65366</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>156632</v>
+      </c>
+      <c r="C81" t="s">
+        <v>697</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="J81" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="K81" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="L81" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8676,56 +9287,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="X81" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="Y81" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65366</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>156633</v>
+      </c>
+      <c r="C82" t="s">
+        <v>706</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="J82" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="K82" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="L82" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8747,56 +9362,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="X82" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="Y82" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>65366</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>156634</v>
+      </c>
+      <c r="C83" t="s">
+        <v>713</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="J83" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="K83" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="L83" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8818,56 +9437,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="X83" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="Y83" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>65366</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>11817</v>
+      </c>
+      <c r="C84" t="s">
+        <v>722</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="J84" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="K84" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="L84" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -8885,56 +9508,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="X84" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="Y84" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>65366</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>156635</v>
+      </c>
+      <c r="C85" t="s">
+        <v>731</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="K85" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="L85" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8946,56 +9573,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="X85" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="Y85" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>65366</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>156636</v>
+      </c>
+      <c r="C86" t="s">
+        <v>740</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="J86" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="K86" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="L86" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -9017,56 +9648,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="X86" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="Y86" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>65366</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>156637</v>
+      </c>
+      <c r="C87" t="s">
+        <v>749</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="J87" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="K87" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="L87" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O87" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="n">
@@ -9082,56 +9717,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="X87" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="Y87" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>65366</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>156638</v>
+      </c>
+      <c r="C88" t="s">
+        <v>759</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="J88" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="K88" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="L88" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="n">
@@ -9149,56 +9788,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="X88" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="Y88" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>65366</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>16285</v>
+      </c>
+      <c r="C89" t="s">
+        <v>766</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="J89" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="K89" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="L89" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -9214,56 +9857,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="X89" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="Y89" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>65366</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>156639</v>
+      </c>
+      <c r="C90" t="s">
+        <v>775</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="J90" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="K90" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="L90" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -9279,56 +9926,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="X90" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="Y90" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>65366</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>4001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>784</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="J91" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="K91" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="L91" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -9340,56 +9991,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="X91" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="Y91" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>65366</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>156640</v>
+      </c>
+      <c r="C92" t="s">
+        <v>790</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="J92" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="K92" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="L92" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O92" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -9401,56 +10056,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="X92" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="Y92" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>65366</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>19423</v>
+      </c>
+      <c r="C93" t="s">
+        <v>800</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="J93" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="K93" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="L93" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -9466,56 +10125,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="X93" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="Y93" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>65366</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>156641</v>
+      </c>
+      <c r="C94" t="s">
+        <v>806</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="J94" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="K94" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="L94" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="n">
@@ -9533,56 +10196,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="X94" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="Y94" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>65366</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>156642</v>
+      </c>
+      <c r="C95" t="s">
+        <v>815</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>730</v>
+        <v>817</v>
       </c>
       <c r="J95" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="K95" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="L95" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9594,56 +10261,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
       <c r="X95" t="s">
-        <v>734</v>
+        <v>821</v>
       </c>
       <c r="Y95" t="s">
-        <v>735</v>
+        <v>822</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>65366</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>156643</v>
+      </c>
+      <c r="C96" t="s">
+        <v>823</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
       <c r="J96" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
       <c r="K96" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c r="L96" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="n">
@@ -9661,56 +10332,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>741</v>
+        <v>829</v>
       </c>
       <c r="X96" t="s">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="Y96" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>65366</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>156644</v>
+      </c>
+      <c r="C97" t="s">
+        <v>832</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="J97" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
       <c r="K97" t="s">
-        <v>747</v>
+        <v>836</v>
       </c>
       <c r="L97" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9732,56 +10407,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="X97" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="Y97" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>65366</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>14385</v>
+      </c>
+      <c r="C98" t="s">
+        <v>841</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>753</v>
+        <v>843</v>
       </c>
       <c r="J98" t="s">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="K98" t="s">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="L98" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9803,56 +10482,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="X98" t="s">
-        <v>758</v>
+        <v>848</v>
       </c>
       <c r="Y98" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>65366</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>15074</v>
+      </c>
+      <c r="C99" t="s">
+        <v>850</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>760</v>
+        <v>851</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>852</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>853</v>
       </c>
       <c r="K99" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="L99" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -9874,56 +10557,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="X99" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="Y99" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>65366</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>156645</v>
+      </c>
+      <c r="C100" t="s">
+        <v>859</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>769</v>
+        <v>861</v>
       </c>
       <c r="J100" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="K100" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="L100" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9941,56 +10628,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="X100" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
       <c r="Y100" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>65366</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>156646</v>
+      </c>
+      <c r="C101" t="s">
+        <v>868</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="J101" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="K101" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="L101" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -10006,56 +10697,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="X101" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="Y101" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>65366</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>156647</v>
+      </c>
+      <c r="C102" t="s">
+        <v>877</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="J102" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="K102" t="s">
-        <v>787</v>
+        <v>881</v>
       </c>
       <c r="L102" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -10077,56 +10772,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="X102" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="Y102" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>65366</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>27066</v>
+      </c>
+      <c r="C103" t="s">
+        <v>886</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>792</v>
+        <v>887</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>793</v>
+        <v>888</v>
       </c>
       <c r="J103" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="K103" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="L103" t="s">
+        <v>891</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
         <v>796</v>
       </c>
-      <c r="M103" t="n">
-        <v>5</v>
-      </c>
-      <c r="N103" t="s">
-        <v>712</v>
-      </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -10148,56 +10847,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="X103" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="Y103" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>65366</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>63611</v>
+      </c>
+      <c r="C104" t="s">
+        <v>893</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>798</v>
+        <v>894</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>799</v>
+        <v>895</v>
       </c>
       <c r="J104" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="K104" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="L104" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O104" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -10217,47 +10920,51 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>803</v>
+        <v>899</v>
       </c>
       <c r="X104" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
       <c r="Y104" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>65366</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>156648</v>
+      </c>
+      <c r="C105" t="s">
+        <v>902</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>806</v>
+        <v>903</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>807</v>
+        <v>904</v>
       </c>
       <c r="J105" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="K105" t="s">
-        <v>808</v>
+        <v>905</v>
       </c>
       <c r="L105" t="s">
-        <v>809</v>
+        <v>906</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -10274,56 +10981,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="X105" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="Y105" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>65366</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>156649</v>
+      </c>
+      <c r="C106" t="s">
+        <v>910</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>813</v>
+        <v>911</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>814</v>
+        <v>912</v>
       </c>
       <c r="J106" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="K106" t="s">
-        <v>815</v>
+        <v>913</v>
       </c>
       <c r="L106" t="s">
-        <v>816</v>
+        <v>914</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="O106" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -10335,56 +11046,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="X106" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="Y106" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>65366</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>16295</v>
+      </c>
+      <c r="C107" t="s">
+        <v>916</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>818</v>
+        <v>917</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>819</v>
+        <v>918</v>
       </c>
       <c r="J107" t="s">
-        <v>820</v>
+        <v>919</v>
       </c>
       <c r="K107" t="s">
-        <v>821</v>
+        <v>920</v>
       </c>
       <c r="L107" t="s">
-        <v>822</v>
+        <v>921</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10406,56 +11121,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="X107" t="s">
-        <v>824</v>
+        <v>923</v>
       </c>
       <c r="Y107" t="s">
-        <v>825</v>
+        <v>924</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>65366</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>15931</v>
+      </c>
+      <c r="C108" t="s">
+        <v>925</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>826</v>
+        <v>926</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="J108" t="s">
-        <v>828</v>
+        <v>928</v>
       </c>
       <c r="K108" t="s">
-        <v>829</v>
+        <v>929</v>
       </c>
       <c r="L108" t="s">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -10467,56 +11186,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="X108" t="s">
-        <v>824</v>
+        <v>923</v>
       </c>
       <c r="Y108" t="s">
-        <v>831</v>
+        <v>931</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>65366</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>932</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>832</v>
+        <v>933</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>833</v>
+        <v>934</v>
       </c>
       <c r="J109" t="s">
-        <v>834</v>
+        <v>935</v>
       </c>
       <c r="K109" t="s">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="L109" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="O109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10538,56 +11261,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="X109" t="s">
-        <v>824</v>
+        <v>923</v>
       </c>
       <c r="Y109" t="s">
-        <v>837</v>
+        <v>938</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>65366</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>9492</v>
+      </c>
+      <c r="C110" t="s">
+        <v>939</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>838</v>
+        <v>940</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>839</v>
+        <v>941</v>
       </c>
       <c r="J110" t="s">
-        <v>840</v>
+        <v>942</v>
       </c>
       <c r="K110" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="L110" t="s">
-        <v>842</v>
+        <v>944</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10609,13 +11336,13 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="X110" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="Y110" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
     </row>
     <row r="111">
@@ -10628,37 +11355,37 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>847</v>
+        <v>949</v>
       </c>
       <c r="J111" t="s">
-        <v>848</v>
+        <v>950</v>
       </c>
       <c r="K111" t="s">
-        <v>849</v>
+        <v>951</v>
       </c>
       <c r="L111" t="s">
-        <v>850</v>
+        <v>952</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10680,13 +11407,13 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>852</v>
+        <v>954</v>
       </c>
       <c r="X111" t="s">
-        <v>853</v>
+        <v>955</v>
       </c>
       <c r="Y111" t="s">
-        <v>854</v>
+        <v>956</v>
       </c>
     </row>
     <row r="112">
@@ -10699,37 +11426,37 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>855</v>
+        <v>957</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>856</v>
+        <v>958</v>
       </c>
       <c r="J112" t="s">
-        <v>848</v>
+        <v>950</v>
       </c>
       <c r="K112" t="s">
-        <v>857</v>
+        <v>959</v>
       </c>
       <c r="L112" t="s">
-        <v>858</v>
+        <v>960</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O112" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10749,56 +11476,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>852</v>
+        <v>954</v>
       </c>
       <c r="X112" t="s">
-        <v>853</v>
+        <v>955</v>
       </c>
       <c r="Y112" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>65366</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>156650</v>
+      </c>
+      <c r="C113" t="s">
+        <v>962</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>860</v>
+        <v>963</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>861</v>
+        <v>964</v>
       </c>
       <c r="J113" t="s">
-        <v>862</v>
+        <v>965</v>
       </c>
       <c r="K113" t="s">
-        <v>863</v>
+        <v>966</v>
       </c>
       <c r="L113" t="s">
-        <v>864</v>
+        <v>967</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10814,56 +11545,60 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="X113" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="Y113" t="s">
-        <v>867</v>
+        <v>970</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>65366</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C114" t="s">
+        <v>971</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>868</v>
+        <v>972</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>869</v>
+        <v>973</v>
       </c>
       <c r="J114" t="s">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c r="K114" t="s">
-        <v>871</v>
+        <v>975</v>
       </c>
       <c r="L114" t="s">
-        <v>872</v>
+        <v>976</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O114" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10885,13 +11620,13 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="X114" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="Y114" t="s">
-        <v>873</v>
+        <v>977</v>
       </c>
     </row>
     <row r="115">
@@ -10904,37 +11639,37 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>874</v>
+        <v>978</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>875</v>
+        <v>979</v>
       </c>
       <c r="J115" t="s">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c r="K115" t="s">
-        <v>876</v>
+        <v>980</v>
       </c>
       <c r="L115" t="s">
-        <v>877</v>
+        <v>981</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10956,56 +11691,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="X115" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="Y115" t="s">
-        <v>878</v>
+        <v>982</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>65366</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>9541</v>
+      </c>
+      <c r="C116" t="s">
+        <v>983</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>879</v>
+        <v>984</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>880</v>
+        <v>985</v>
       </c>
       <c r="J116" t="s">
-        <v>881</v>
+        <v>986</v>
       </c>
       <c r="K116" t="s">
-        <v>882</v>
+        <v>987</v>
       </c>
       <c r="L116" t="s">
-        <v>883</v>
+        <v>988</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O116" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -11027,13 +11766,13 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="X116" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="Y116" t="s">
-        <v>884</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
